--- a/IT_BDM/WebRoot/files/import/zmz/VPN账号登记.xlsx
+++ b/IT_BDM/WebRoot/files/import/zmz/VPN账号登记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,15 +49,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VPN密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登记时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上为测试数据请先删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,6 +77,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,10 +116,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,18 +407,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="15.77734375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
+    <col min="6" max="9" width="15.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,6 +450,84 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>518000</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1655</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4135135153153150</v>
+      </c>
+      <c r="F2" s="1">
+        <v>135135</v>
+      </c>
+      <c r="G2" s="1">
+        <v>156165</v>
+      </c>
+      <c r="H2" s="1">
+        <v>151</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1561</v>
+      </c>
+      <c r="J2" s="1">
+        <v>165</v>
+      </c>
+      <c r="K2" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>518001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1655</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4135135153153150</v>
+      </c>
+      <c r="F3" s="1">
+        <v>135135</v>
+      </c>
+      <c r="G3" s="1">
+        <v>156165</v>
+      </c>
+      <c r="H3" s="1">
+        <v>152</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/IT_BDM/WebRoot/files/import/zmz/VPN账号登记.xlsx
+++ b/IT_BDM/WebRoot/files/import/zmz/VPN账号登记.xlsx
@@ -116,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -126,6 +126,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,7 +413,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,8 +480,8 @@
       <c r="G2" s="1">
         <v>156165</v>
       </c>
-      <c r="H2" s="1">
-        <v>151</v>
+      <c r="H2" s="4">
+        <v>42716</v>
       </c>
       <c r="I2" s="1">
         <v>1561</v>
@@ -512,8 +515,8 @@
       <c r="G3" s="1">
         <v>156165</v>
       </c>
-      <c r="H3" s="1">
-        <v>152</v>
+      <c r="H3" s="4">
+        <v>42717</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
